--- a/Simulation_Data/Coating_Strength_Data.xlsx
+++ b/Simulation_Data/Coating_Strength_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\MATLAB\DNV matlab code\Simulation_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3594786F-9D6B-46C0-8C9F-375EA80917A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23359C1-2971-4CC2-AD8C-AC7D35625E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +390,7 @@
         <v>4.97</v>
       </c>
       <c r="C2">
-        <v>7.4175000000000004</v>
+        <v>7.41</v>
       </c>
       <c r="D2">
         <v>7.28</v>
